--- a/resultados/Experimento 7 Q-10.xlsx
+++ b/resultados/Experimento 7 Q-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Documents\GitHub\CMSTP-TW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3B33F-2481-4553-9265-56FA7D7CA529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0782C97-60CC-4259-82ED-12106CE86799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,9 +582,9 @@
       <selection activeCell="D57" sqref="D2:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,119 +598,119 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>582.21699253907764</v>
+        <v>580.60709536472075</v>
       </c>
       <c r="C2">
-        <v>598.47194939228962</v>
+        <v>608.98254272107022</v>
       </c>
       <c r="D2">
-        <v>19.714019024791199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.55684309136122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3">
-        <v>577.89242510899317</v>
+        <v>578.20020940428526</v>
       </c>
       <c r="C3">
-        <v>581.59009648122276</v>
+        <v>581.54113380701631</v>
       </c>
       <c r="D3">
-        <v>20.8705870705191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.157922827638689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>558.39004459262162</v>
+        <v>552.68946292348164</v>
       </c>
       <c r="C4">
-        <v>569.79770666806724</v>
+        <v>571.911829290995</v>
       </c>
       <c r="D4">
-        <v>27.31837955964729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.25836939997971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>542.49358153260948</v>
+        <v>540.29515330592119</v>
       </c>
       <c r="C5">
-        <v>544.09253901172519</v>
+        <v>543.6638736547618</v>
       </c>
       <c r="D5">
-        <v>17.97293387851678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.249892474897209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
       <c r="B6">
-        <v>570.09476861963299</v>
+        <v>572.47408014571874</v>
       </c>
       <c r="C6">
-        <v>573.8627609325747</v>
+        <v>579.55821903671017</v>
       </c>
       <c r="D6">
-        <v>22.800113355088978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.823132714629171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>579.04230905216991</v>
+        <v>574.755034287385</v>
       </c>
       <c r="C7">
-        <v>583.12257572237411</v>
+        <v>583.54544442050451</v>
       </c>
       <c r="D7">
-        <v>22.570860438002271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.51608479823917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>573.25389109171238</v>
+        <v>572.47408014571874</v>
       </c>
       <c r="C8">
-        <v>586.41645340339505</v>
+        <v>580.38811745238115</v>
       </c>
       <c r="D8">
-        <v>22.643138594226912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.46985013075173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
-        <v>569.76006089044313</v>
+        <v>567.37326325922982</v>
       </c>
       <c r="C9">
-        <v>581.41535547830074</v>
+        <v>576.27595597853224</v>
       </c>
       <c r="D9">
-        <v>25.816706577269361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.704997855424882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -717,125 +718,125 @@
         <v>547.12490985103693</v>
       </c>
       <c r="C10">
-        <v>547.90664365291684</v>
+        <v>547.95519535989729</v>
       </c>
       <c r="D10">
-        <v>21.054136297944929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.490752261504529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
-        <v>701.33850609272667</v>
+        <v>701.63242435453105</v>
       </c>
       <c r="C11">
-        <v>719.89563244790759</v>
+        <v>725.1931990424863</v>
       </c>
       <c r="D11">
-        <v>21.950732718268409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.235939627513289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>698.70200132242576</v>
+        <v>703.25946994389165</v>
       </c>
       <c r="C12">
-        <v>714.82466128336193</v>
+        <v>717.32215585838026</v>
       </c>
       <c r="D12">
-        <v>24.839033475006001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.58289454616606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13">
-        <v>670.76707725322149</v>
+        <v>680.64600224089247</v>
       </c>
       <c r="C13">
-        <v>699.03703875790904</v>
+        <v>693.6171402161649</v>
       </c>
       <c r="D13">
-        <v>22.749434745684269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.612720315717159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14">
-        <v>661.89152286289084</v>
+        <v>664.75649891859234</v>
       </c>
       <c r="C14">
-        <v>688.81667974759705</v>
+        <v>693.21990193976058</v>
       </c>
       <c r="D14">
-        <v>23.32756796162575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.3084184885025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>679.90213142551954</v>
+        <v>683.35825323593747</v>
       </c>
       <c r="C15">
-        <v>698.19284205299368</v>
+        <v>696.20082576356504</v>
       </c>
       <c r="D15">
-        <v>23.100044268742199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.295266653783621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>670.4196798205694</v>
+        <v>672.3311203932069</v>
       </c>
       <c r="C16">
-        <v>686.57088434470813</v>
+        <v>694.83879816961132</v>
       </c>
       <c r="D16">
-        <v>23.165626207413151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.751255507767201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>682.85418288241476</v>
+        <v>679.62356678020922</v>
       </c>
       <c r="C17">
-        <v>707.92679368106542</v>
+        <v>704.97906905449156</v>
       </c>
       <c r="D17">
-        <v>21.945647525275131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.519774385914211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
-        <v>661.36862602433507</v>
+        <v>655.69115716770989</v>
       </c>
       <c r="C18">
-        <v>674.60411709405048</v>
+        <v>672.54725863721887</v>
       </c>
       <c r="D18">
-        <v>21.803272968344391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.871223925054071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -843,167 +844,167 @@
         <v>886.31409484278367</v>
       </c>
       <c r="C19">
-        <v>909.57236094664711</v>
+        <v>910.93136635390294</v>
       </c>
       <c r="D19">
-        <v>21.174235705798491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.942744533531371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20">
-        <v>791.36358221989371</v>
+        <v>797.90601808132226</v>
       </c>
       <c r="C20">
-        <v>816.92473430100972</v>
+        <v>824.26149492450293</v>
       </c>
       <c r="D20">
-        <v>26.353617158252749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.050379510410131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21">
-        <v>731.8811558703436</v>
+        <v>731.03404463908453</v>
       </c>
       <c r="C21">
-        <v>757.79254914850947</v>
+        <v>767.61055788916872</v>
       </c>
       <c r="D21">
-        <v>24.89073461391963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.975084007345139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22">
-        <v>692.06246808412811</v>
+        <v>706.424484257676</v>
       </c>
       <c r="C22">
-        <v>715.41876998931832</v>
+        <v>725.11225194744839</v>
       </c>
       <c r="D22">
-        <v>22.016574984928589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.589686381816861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>801.92903618735352</v>
+        <v>791.81920455052295</v>
       </c>
       <c r="C23">
-        <v>815.40283321434231</v>
+        <v>815.55127651709688</v>
       </c>
       <c r="D23">
-        <v>21.12925733127631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.767574932426211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24">
-        <v>783.02557649800042</v>
+        <v>777.8198761252703</v>
       </c>
       <c r="C24">
-        <v>805.43975623558345</v>
+        <v>801.05394874956323</v>
       </c>
       <c r="D24">
-        <v>22.906056426884611</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.11109275985509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
-        <v>709.79920402643904</v>
+        <v>711.10862781837398</v>
       </c>
       <c r="C25">
-        <v>742.6698567162282</v>
+        <v>739.27909801434373</v>
       </c>
       <c r="D25">
-        <v>24.6647163935937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.462616109848021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>703.77829057263909</v>
+        <v>712.41933883389447</v>
       </c>
       <c r="C26">
-        <v>722.43989524833364</v>
+        <v>725.37750525643139</v>
       </c>
       <c r="D26">
-        <v>23.061397188669069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.769587702304129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
-        <v>727.1915621130679</v>
+        <v>720.11094864586164</v>
       </c>
       <c r="C27">
-        <v>748.31006417985668</v>
+        <v>744.80157730307997</v>
       </c>
       <c r="D27">
-        <v>22.945310578448701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.693421344272789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
-        <v>714.83273295616993</v>
+        <v>717.24551172172562</v>
       </c>
       <c r="C28">
-        <v>734.70036948822894</v>
+        <v>730.47285822676213</v>
       </c>
       <c r="D28">
-        <v>23.404228834016251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.885116298682991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
-        <v>719.83985391539966</v>
+        <v>715.42667142742812</v>
       </c>
       <c r="C29">
-        <v>741.64911359964196</v>
+        <v>740.20285310686961</v>
       </c>
       <c r="D29">
-        <v>23.705076899286361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.825585025921459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
       <c r="B30">
-        <v>704.16295296790281</v>
+        <v>698.75786299281401</v>
       </c>
       <c r="C30">
-        <v>722.1101407078188</v>
+        <v>721.52263968590592</v>
       </c>
       <c r="D30">
-        <v>18.0327659020666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.241119591705498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1011,41 +1012,41 @@
         <v>816.47109041182409</v>
       </c>
       <c r="C31">
-        <v>837.2127630788782</v>
+        <v>838.9714123763722</v>
       </c>
       <c r="D31">
-        <v>21.96650473419577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.48958127051592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
-        <v>791.11119924487502</v>
+        <v>776.6896834578954</v>
       </c>
       <c r="C32">
-        <v>811.06385232562673</v>
+        <v>809.20720606384475</v>
       </c>
       <c r="D32">
-        <v>22.81166222998872</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.787439173832539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
       <c r="B33">
-        <v>752.08253122000747</v>
+        <v>733.02929960483027</v>
       </c>
       <c r="C33">
-        <v>767.41281149117799</v>
+        <v>761.74216375139144</v>
       </c>
       <c r="D33">
-        <v>21.923150704288851</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.65824845209718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1053,13 +1054,13 @@
         <v>676.37282106647785</v>
       </c>
       <c r="C34">
-        <v>709.20404835742306</v>
+        <v>701.20615058899352</v>
       </c>
       <c r="D34">
-        <v>21.68067351463251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.126057610847059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1067,27 +1068,27 @@
         <v>770.72348994382435</v>
       </c>
       <c r="C35">
-        <v>792.90034606022164</v>
+        <v>791.8389137526525</v>
       </c>
       <c r="D35">
-        <v>21.949246023222809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.454611790180209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36">
-        <v>745.8186632857969</v>
+        <v>745.9450813508688</v>
       </c>
       <c r="C36">
-        <v>779.16752415076417</v>
+        <v>779.41820175752832</v>
       </c>
       <c r="D36">
-        <v>22.675803699856619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.15014803204685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1095,13 +1096,13 @@
         <v>743.19731967196992</v>
       </c>
       <c r="C37">
-        <v>769.22279330351671</v>
+        <v>770.77354661870334</v>
       </c>
       <c r="D37">
-        <v>21.666660103807221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.725398919358849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1109,55 +1110,55 @@
         <v>710.49532372798217</v>
       </c>
       <c r="C38">
-        <v>717.25614804684801</v>
+        <v>717.60840075777764</v>
       </c>
       <c r="D38">
-        <v>20.19045155309141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.001329957507551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39">
-        <v>737.11317936459216</v>
+        <v>717.66339387793596</v>
       </c>
       <c r="C39">
-        <v>753.66898808061092</v>
+        <v>748.4867108007486</v>
       </c>
       <c r="D39">
-        <v>22.989048272650692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.84357279408723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
-        <v>746.02262970090987</v>
+        <v>742.19426026290364</v>
       </c>
       <c r="C40">
-        <v>767.90538186718027</v>
+        <v>766.32611953886351</v>
       </c>
       <c r="D40">
-        <v>23.312473465083169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.863132917322218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>684.60745641459778</v>
+        <v>689.3106508510848</v>
       </c>
       <c r="C41">
-        <v>709.73646453480603</v>
+        <v>710.54877151535641</v>
       </c>
       <c r="D41">
-        <v>18.960436312202361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.68147080019116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1165,69 +1166,69 @@
         <v>836.88030555835257</v>
       </c>
       <c r="C42">
-        <v>869.63955967626316</v>
+        <v>884.23684207118345</v>
       </c>
       <c r="D42">
-        <v>24.348090532002971</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.784036307781939</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>793.19480185587281</v>
+        <v>785.85600423909545</v>
       </c>
       <c r="C43">
-        <v>845.5808323007077</v>
+        <v>845.81089601915914</v>
       </c>
       <c r="D43">
-        <v>25.69591872044839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.479221495985989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>746.96530999010793</v>
+        <v>751.9218879013406</v>
       </c>
       <c r="C44">
-        <v>764.60411212040856</v>
+        <v>763.51752018537286</v>
       </c>
       <c r="D44">
-        <v>23.679566995147621</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.57325497232377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
       <c r="B45">
-        <v>757.86127761157127</v>
+        <v>759.9323064526958</v>
       </c>
       <c r="C45">
-        <v>787.78363720175071</v>
+        <v>788.43509239971297</v>
       </c>
       <c r="D45">
-        <v>20.916367597552021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18.876622904650869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
       <c r="B46">
-        <v>804.23308659168447</v>
+        <v>799.41750722846177</v>
       </c>
       <c r="C46">
-        <v>840.42642220758137</v>
+        <v>830.66387654162224</v>
       </c>
       <c r="D46">
-        <v>23.574222337314861</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.9278489721939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1235,150 +1236,150 @@
         <v>775.58284518523988</v>
       </c>
       <c r="C47">
-        <v>807.51649618475062</v>
+        <v>808.91867601862873</v>
       </c>
       <c r="D47">
-        <v>23.50590806240216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.521046317927539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
       <c r="B48">
-        <v>778.07089680176603</v>
+        <v>771.32772312033512</v>
       </c>
       <c r="C48">
-        <v>809.05844018116545</v>
+        <v>809.58379603841479</v>
       </c>
       <c r="D48">
-        <v>23.243422897160048</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.69580920431763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
-        <v>742.45233169713606</v>
+        <v>735.11797830477417</v>
       </c>
       <c r="C49">
-        <v>751.82636662440405</v>
+        <v>752.73224035170517</v>
       </c>
       <c r="D49">
-        <v>20.71719265556894</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17.96932146120816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>903.65213011651781</v>
+        <v>898.22293879764425</v>
       </c>
       <c r="C50">
-        <v>934.12455446271599</v>
+        <v>935.84382607593125</v>
       </c>
       <c r="D50">
-        <v>21.21447859876789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.016338937357069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
-        <v>800.15605181153796</v>
+        <v>805.54246347275398</v>
       </c>
       <c r="C51">
-        <v>829.33351440349929</v>
+        <v>843.94545729125218</v>
       </c>
       <c r="D51">
-        <v>24.438701784238219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.935639854706821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>742.5583812828329</v>
+        <v>740.06814599187248</v>
       </c>
       <c r="C52">
-        <v>769.43258566419536</v>
+        <v>764.7434563536201</v>
       </c>
       <c r="D52">
-        <v>22.66507428623736</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.806500273756679</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>730.41314418524473</v>
+        <v>740.31529976829279</v>
       </c>
       <c r="C53">
-        <v>773.3531058945839</v>
+        <v>770.78168716792368</v>
       </c>
       <c r="D53">
-        <v>22.0537490457762</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.65992532148957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
       <c r="B54">
-        <v>827.22693896426836</v>
+        <v>815.96703703210187</v>
       </c>
       <c r="C54">
-        <v>862.23995245025253</v>
+        <v>868.75453903698178</v>
       </c>
       <c r="D54">
-        <v>22.303246679203589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.94265700392425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55">
-        <v>826.7038833960255</v>
+        <v>824.11285708727883</v>
       </c>
       <c r="C55">
-        <v>863.99647342192725</v>
+        <v>863.87663363511888</v>
       </c>
       <c r="D55">
-        <v>22.801319441339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19.839037063904112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>774.41934179688838</v>
+        <v>781.28459673341172</v>
       </c>
       <c r="C56">
-        <v>796.19161813737401</v>
+        <v>796.34109382631357</v>
       </c>
       <c r="D56">
-        <v>22.753745818976309</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20.336718113720419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>40</v>
       </c>
       <c r="B57">
-        <v>725.03954489305147</v>
+        <v>722.45638518690862</v>
       </c>
       <c r="C57">
-        <v>735.48983970506322</v>
+        <v>744.98110328584414</v>
       </c>
       <c r="D57">
-        <v>19.680123457498851</v>
+        <v>17.055582830123601</v>
       </c>
     </row>
   </sheetData>
